--- a/BUG记录和重现办法.xlsx
+++ b/BUG记录和重现办法.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>开Cache</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,26 @@
   </si>
   <si>
     <t>19-LTDC—液晶显示中文（字库在SD卡）工程直接进HardFault重现方法:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21-电容触摸屏—触摸画板（兼容屏幕版本）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序烧录到单片FLASH会花屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在这个例程中一直按复位竟然不会出现在程序跑飞的情况，很神奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC—独立模式-单通道-中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序下载到外部FLASH中断一直产生 main根本不能运行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -185,6 +205,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -193,14 +225,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -518,11 +544,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
@@ -574,63 +600,133 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+    </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="13">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A1:C1"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BUG记录和重现办法.xlsx
+++ b/BUG记录和重现办法.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>开Cache</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,13 @@
   </si>
   <si>
     <t>程序下载到外部FLASH中断一直产生 main根本不能运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C-AP3216C（光照三合一）</t>
+  </si>
+  <si>
+    <t>跑着跑着就读不到数据了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,6 +211,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -212,21 +234,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -544,11 +551,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
@@ -601,124 +608,135 @@
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
+  <mergeCells count="15">
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A24:B24"/>
@@ -727,6 +745,11 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BUG记录和重现办法.xlsx
+++ b/BUG记录和重现办法.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>开Cache</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,14 @@
   </si>
   <si>
     <t>跑着跑着就读不到数据了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时解决方案：ADC中断在读数据前开，读完数据后关闭中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决，增大I2C超时等待时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,7 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +135,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -136,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -196,11 +219,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -234,6 +319,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -655,101 +773,127 @@
       <c r="B16" s="5"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D35" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="19"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="D30:H31"/>
+    <mergeCell ref="D35:H36"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A25:C25"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BUG记录和重现办法.xlsx
+++ b/BUG记录和重现办法.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>开Cache</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,18 @@
   </si>
   <si>
     <t>已解决，增大I2C超时等待时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案：使用HAL_SYSCFG_AnalogSwitchConfig函数将模拟开关切换到PA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因：EXTI0中断源由PA0和PA0_C两个引脚共用，两个引脚通过一个模拟开关与片上外设连接，默认情况下模拟开关是同时接通两个引脚的，这样会相互干扰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决，是芯片引脚的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +162,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -159,7 +186,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -281,11 +308,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -299,16 +344,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -319,39 +427,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -668,123 +743,185 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B1" s="29"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C5" s="5"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C6" s="5"/>
+      <c r="D6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C7" s="5"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -803,39 +940,39 @@
       <c r="C21" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="12" t="s">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
@@ -843,25 +980,25 @@
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="23"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="12" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="19"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
@@ -869,15 +1006,14 @@
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="22"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="D30:H31"/>
+  <mergeCells count="20">
     <mergeCell ref="D35:H36"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A12:C12"/>
@@ -894,6 +1030,10 @@
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="D2:K5"/>
+    <mergeCell ref="D6:K7"/>
+    <mergeCell ref="D30:H31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
